--- a/Project/data/excel/equipmentConfig.xlsx
+++ b/Project/data/excel/equipmentConfig.xlsx
@@ -42,35 +42,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>邓煊:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-字段类型
-这个类型决定了用哪个类型转换器解析</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="109">
   <si>
     <t>int</t>
   </si>
@@ -99,6 +76,9 @@
     <t>buffID</t>
   </si>
   <si>
+    <t>稀有度</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -117,20 +97,286 @@
     <t>slotID</t>
   </si>
   <si>
-    <t>装备-链枷</t>
-  </si>
-  <si>
-    <t>刺锤</t>
-  </si>
-  <si>
-    <t>W_Mace004.png</t>
-  </si>
-  <si>
-    <t>攻击力+2，攻击可使敌人中毒
-中毒：每回合生命-1，持续3回合</t>
-  </si>
-  <si>
-    <t>淬毒长矛</t>
+    <t>rare</t>
+  </si>
+  <si>
+    <t>铁刺锤</t>
+  </si>
+  <si>
+    <t>武器/W_Mace004.png</t>
+  </si>
+  <si>
+    <t>攻击+4，速度-1</t>
+  </si>
+  <si>
+    <t>木刺锤</t>
+  </si>
+  <si>
+    <t>武器/icon_03.png</t>
+  </si>
+  <si>
+    <t>攻击+3</t>
+  </si>
+  <si>
+    <t>铁斧</t>
+  </si>
+  <si>
+    <t>武器/W_Axe001.png</t>
+  </si>
+  <si>
+    <t>攻击+3，防御+1，速度-1</t>
+  </si>
+  <si>
+    <t>木弓</t>
+  </si>
+  <si>
+    <t>武器/W_Bow02.png</t>
+  </si>
+  <si>
+    <t>攻击+2，幸运+1</t>
+  </si>
+  <si>
+    <t>小匕首</t>
+  </si>
+  <si>
+    <t>武器/W_Dagger003.png</t>
+  </si>
+  <si>
+    <t>攻击+1，速度+2</t>
+  </si>
+  <si>
+    <t>玻璃杖</t>
+  </si>
+  <si>
+    <t>武器/icon_06.png</t>
+  </si>
+  <si>
+    <t>速度+3，幸运+3</t>
+  </si>
+  <si>
+    <t>链锤</t>
+  </si>
+  <si>
+    <t>武器/W_Mace005.png</t>
+  </si>
+  <si>
+    <t>防御+3，速度+3</t>
+  </si>
+  <si>
+    <t>手枪</t>
+  </si>
+  <si>
+    <t>武器/W_Gun003.png</t>
+  </si>
+  <si>
+    <t>攻击+12，攻击6次后损坏</t>
+  </si>
+  <si>
+    <t>巨矛</t>
+  </si>
+  <si>
+    <t>武器/W_Spear009.png</t>
+  </si>
+  <si>
+    <t>攻击+3，防御+2</t>
+  </si>
+  <si>
+    <t>骨头杖</t>
+  </si>
+  <si>
+    <t>武器/icon_09.png</t>
+  </si>
+  <si>
+    <t>攻击+10，对亡灵伤害+100%</t>
+  </si>
+  <si>
+    <t>黄金弓</t>
+  </si>
+  <si>
+    <t>武器/W_Bow12.png</t>
+  </si>
+  <si>
+    <t>攻击+3，速度+3
+击杀敌人获得X金币</t>
+  </si>
+  <si>
+    <t>火刀</t>
+  </si>
+  <si>
+    <t>武器/W_Dagger016.png</t>
+  </si>
+  <si>
+    <t>攻击+5，速度+3，攻击引燃敌人
+引燃：每回合生命-1，持续3回合</t>
+  </si>
+  <si>
+    <t>“拐杖糖”</t>
+  </si>
+  <si>
+    <t>武器/W_Mace010.png</t>
+  </si>
+  <si>
+    <t>攻击+5，防御-5
+攻击使生命最大值+1</t>
+  </si>
+  <si>
+    <t>猎龙巨斧</t>
+  </si>
+  <si>
+    <t>武器/W_Axe012.png</t>
+  </si>
+  <si>
+    <t>攻击+40，速度-40</t>
+  </si>
+  <si>
+    <t>皮甲</t>
+  </si>
+  <si>
+    <t>防具/A_Armor04.png</t>
+  </si>
+  <si>
+    <t>防御+2，速度-1</t>
+  </si>
+  <si>
+    <t>银甲</t>
+  </si>
+  <si>
+    <t>防御+4，速度-2</t>
+  </si>
+  <si>
+    <t>金甲</t>
+  </si>
+  <si>
+    <t>防具/A_Armor03.png</t>
+  </si>
+  <si>
+    <t>防御+8，速度-3</t>
+  </si>
+  <si>
+    <t>火龙甲</t>
+  </si>
+  <si>
+    <t>防具/A_Armor05.png</t>
+  </si>
+  <si>
+    <t>防御+12，速度-4，受到伤害时反弹5伤害</t>
+  </si>
+  <si>
+    <t>布鞋</t>
+  </si>
+  <si>
+    <t>防具/A_Shoes01.png</t>
+  </si>
+  <si>
+    <t>速度+2</t>
+  </si>
+  <si>
+    <t>绿鞋</t>
+  </si>
+  <si>
+    <t>防具/A_Shoes02.png</t>
+  </si>
+  <si>
+    <t>速度+4，防御+1</t>
+  </si>
+  <si>
+    <t>运动鞋</t>
+  </si>
+  <si>
+    <t>防具/A_Shoes04.png</t>
+  </si>
+  <si>
+    <t>速度+7</t>
+  </si>
+  <si>
+    <t>魔法鞋</t>
+  </si>
+  <si>
+    <t>防具/A_Shoes06.png</t>
+  </si>
+  <si>
+    <t>速度+3，幸运+3，主动道具效果+100%</t>
+  </si>
+  <si>
+    <t>锅盖</t>
+  </si>
+  <si>
+    <t>防具/E_Wood01.png</t>
+  </si>
+  <si>
+    <t>防御+2</t>
+  </si>
+  <si>
+    <t>铁盾</t>
+  </si>
+  <si>
+    <t>防具/E_Metal04.png</t>
+  </si>
+  <si>
+    <t>防御+5</t>
+  </si>
+  <si>
+    <t>黄金盾</t>
+  </si>
+  <si>
+    <t>防具/E_Gold02.png</t>
+  </si>
+  <si>
+    <t>防御+4，幸运+3</t>
+  </si>
+  <si>
+    <t>龙骨盾</t>
+  </si>
+  <si>
+    <t>防具/E_Bones02.png</t>
+  </si>
+  <si>
+    <t>防御+12</t>
+  </si>
+  <si>
+    <t>火戒指</t>
+  </si>
+  <si>
+    <t>防具/icon_18.png</t>
+  </si>
+  <si>
+    <t>攻击时20%使敌人着火</t>
+  </si>
+  <si>
+    <t>石戒指</t>
+  </si>
+  <si>
+    <t>防具/icon_19.png</t>
+  </si>
+  <si>
+    <t>物理伤害+3</t>
+  </si>
+  <si>
+    <t>毒戒指</t>
+  </si>
+  <si>
+    <t>防具/icon_21.png</t>
+  </si>
+  <si>
+    <t>攻击时20%使敌人中毒</t>
+  </si>
+  <si>
+    <t>钻石戒指</t>
+  </si>
+  <si>
+    <t>防具/icon_22.png</t>
+  </si>
+  <si>
+    <t>受到持续伤害减少1回合</t>
+  </si>
+  <si>
+    <t>重生项链</t>
+  </si>
+  <si>
+    <t>防具/icon_25.png</t>
+  </si>
+  <si>
+    <t>受到致命伤害时，恢复所有生命并摧毁此物品</t>
   </si>
 </sst>
 </file>
@@ -771,7 +1017,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -781,6 +1027,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="24" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1097,16 +1346,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="5" max="5" width="20.5666666666667" customWidth="1"/>
-    <col min="6" max="6" width="16.8916666666667" customWidth="1"/>
+    <col min="4" max="4" width="20.5666666666667" customWidth="1"/>
+    <col min="5" max="5" width="21.15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1114,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1126,100 +1375,96 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14">
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" ht="54" spans="1:14">
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
         <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
@@ -1229,23 +1474,714 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" ht="54" spans="2:7">
-      <c r="B5" s="2">
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
         <v>2</v>
       </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
       </c>
       <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="27" spans="1:13">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2">
         <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" ht="27" spans="1:8">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" ht="54" spans="1:8">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>12</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" ht="27" spans="1:8">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>13</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>14</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1001</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2">
+        <v>1002</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1002</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2">
+        <v>1003</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1003</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2">
+        <v>1004</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1004</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>2001</v>
+      </c>
+      <c r="C22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>2001</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>2002</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>2002</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>2003</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>2003</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>2004</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>2004</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>3001</v>
+      </c>
+      <c r="C26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>3001</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>3002</v>
+      </c>
+      <c r="C27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>3002</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>3003</v>
+      </c>
+      <c r="C28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>3003</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>3004</v>
+      </c>
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>3004</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>4001</v>
+      </c>
+      <c r="C30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>4001</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>4002</v>
+      </c>
+      <c r="C31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>4002</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>4003</v>
+      </c>
+      <c r="C32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>4003</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>4004</v>
+      </c>
+      <c r="C33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>4004</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>4005</v>
+      </c>
+      <c r="C34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>4005</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Project/data/excel/equipmentConfig.xlsx
+++ b/Project/data/excel/equipmentConfig.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
   <si>
     <t>int</t>
   </si>
@@ -106,70 +106,49 @@
     <t>武器/W_Mace004.png</t>
   </si>
   <si>
-    <t>攻击+4，速度-1</t>
-  </si>
-  <si>
     <t>木刺锤</t>
   </si>
   <si>
     <t>武器/icon_03.png</t>
   </si>
   <si>
-    <t>攻击+3</t>
-  </si>
-  <si>
     <t>铁斧</t>
   </si>
   <si>
     <t>武器/W_Axe001.png</t>
   </si>
   <si>
-    <t>攻击+3，防御+1，速度-1</t>
-  </si>
-  <si>
     <t>木弓</t>
   </si>
   <si>
     <t>武器/W_Bow02.png</t>
   </si>
   <si>
-    <t>攻击+2，幸运+1</t>
-  </si>
-  <si>
     <t>小匕首</t>
   </si>
   <si>
     <t>武器/W_Dagger003.png</t>
   </si>
   <si>
-    <t>攻击+1，速度+2</t>
-  </si>
-  <si>
     <t>玻璃杖</t>
   </si>
   <si>
     <t>武器/icon_06.png</t>
   </si>
   <si>
-    <t>速度+3，幸运+3</t>
-  </si>
-  <si>
     <t>链锤</t>
   </si>
   <si>
     <t>武器/W_Mace005.png</t>
   </si>
   <si>
-    <t>防御+3，速度+3</t>
-  </si>
-  <si>
     <t>手枪</t>
   </si>
   <si>
     <t>武器/W_Gun003.png</t>
   </si>
   <si>
-    <t>攻击+12，攻击6次后损坏</t>
+    <t>攻击6次后损坏</t>
   </si>
   <si>
     <t>巨矛</t>
@@ -178,16 +157,13 @@
     <t>武器/W_Spear009.png</t>
   </si>
   <si>
-    <t>攻击+3，防御+2</t>
-  </si>
-  <si>
     <t>骨头杖</t>
   </si>
   <si>
     <t>武器/icon_09.png</t>
   </si>
   <si>
-    <t>攻击+10，对亡灵伤害+100%</t>
+    <t>对亡灵伤害+100%</t>
   </si>
   <si>
     <t>黄金弓</t>
@@ -196,8 +172,7 @@
     <t>武器/W_Bow12.png</t>
   </si>
   <si>
-    <t>攻击+3，速度+3
-击杀敌人获得X金币</t>
+    <t>击杀敌人获得X金币</t>
   </si>
   <si>
     <t>火刀</t>
@@ -206,7 +181,7 @@
     <t>武器/W_Dagger016.png</t>
   </si>
   <si>
-    <t>攻击+5，速度+3，攻击引燃敌人
+    <t>攻击引燃敌人
 引燃：每回合生命-1，持续3回合</t>
   </si>
   <si>
@@ -216,7 +191,7 @@
     <t>武器/W_Mace010.png</t>
   </si>
   <si>
-    <t>攻击+5，防御-5
+    <t xml:space="preserve">
 攻击使生命最大值+1</t>
   </si>
   <si>
@@ -226,40 +201,28 @@
     <t>武器/W_Axe012.png</t>
   </si>
   <si>
-    <t>攻击+40，速度-40</t>
-  </si>
-  <si>
     <t>皮甲</t>
   </si>
   <si>
     <t>防具/A_Armor04.png</t>
   </si>
   <si>
-    <t>防御+2，速度-1</t>
-  </si>
-  <si>
     <t>银甲</t>
   </si>
   <si>
-    <t>防御+4，速度-2</t>
-  </si>
-  <si>
     <t>金甲</t>
   </si>
   <si>
     <t>防具/A_Armor03.png</t>
   </si>
   <si>
-    <t>防御+8，速度-3</t>
-  </si>
-  <si>
     <t>火龙甲</t>
   </si>
   <si>
     <t>防具/A_Armor05.png</t>
   </si>
   <si>
-    <t>防御+12，速度-4，受到伤害时反弹5伤害</t>
+    <t>受到伤害时反弹5伤害</t>
   </si>
   <si>
     <t>布鞋</t>
@@ -268,34 +231,25 @@
     <t>防具/A_Shoes01.png</t>
   </si>
   <si>
-    <t>速度+2</t>
-  </si>
-  <si>
     <t>绿鞋</t>
   </si>
   <si>
     <t>防具/A_Shoes02.png</t>
   </si>
   <si>
-    <t>速度+4，防御+1</t>
-  </si>
-  <si>
     <t>运动鞋</t>
   </si>
   <si>
     <t>防具/A_Shoes04.png</t>
   </si>
   <si>
-    <t>速度+7</t>
-  </si>
-  <si>
     <t>魔法鞋</t>
   </si>
   <si>
     <t>防具/A_Shoes06.png</t>
   </si>
   <si>
-    <t>速度+3，幸运+3，主动道具效果+100%</t>
+    <t>主动道具效果+100%</t>
   </si>
   <si>
     <t>锅盖</t>
@@ -304,34 +258,22 @@
     <t>防具/E_Wood01.png</t>
   </si>
   <si>
-    <t>防御+2</t>
-  </si>
-  <si>
     <t>铁盾</t>
   </si>
   <si>
     <t>防具/E_Metal04.png</t>
   </si>
   <si>
-    <t>防御+5</t>
-  </si>
-  <si>
     <t>黄金盾</t>
   </si>
   <si>
     <t>防具/E_Gold02.png</t>
   </si>
   <si>
-    <t>防御+4，幸运+3</t>
-  </si>
-  <si>
     <t>龙骨盾</t>
   </si>
   <si>
     <t>防具/E_Bones02.png</t>
-  </si>
-  <si>
-    <t>防御+12</t>
   </si>
   <si>
     <t>火戒指</t>
@@ -1017,7 +959,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1027,9 +969,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="24" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1348,8 +1287,8 @@
   <sheetPr/>
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1457,9 +1396,7 @@
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="E4" s="4"/>
       <c r="F4" s="2">
         <v>0</v>
       </c>
@@ -1481,14 +1418,12 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="E5" s="5"/>
       <c r="F5">
         <v>0</v>
       </c>
@@ -1499,20 +1434,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="27" spans="1:13">
+    <row r="6" spans="1:13">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E6" s="4"/>
       <c r="F6" s="2">
         <v>0</v>
       </c>
@@ -1534,14 +1467,12 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E7" s="4"/>
       <c r="F7" s="2">
         <v>0</v>
       </c>
@@ -1563,14 +1494,12 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E8" s="4"/>
       <c r="F8" s="2">
         <v>0</v>
       </c>
@@ -1591,14 +1520,12 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E9"/>
       <c r="F9" s="2">
         <v>0</v>
       </c>
@@ -1614,14 +1541,12 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E10"/>
       <c r="F10" s="2">
         <v>0</v>
       </c>
@@ -1637,13 +1562,13 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
@@ -1660,14 +1585,12 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" t="s">
-        <v>43</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E12"/>
       <c r="F12" s="2">
         <v>0</v>
       </c>
@@ -1683,13 +1606,13 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -1701,18 +1624,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" ht="27" spans="1:8">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -1724,18 +1647,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" ht="54" spans="1:8">
+    <row r="15" ht="40.5" spans="1:8">
       <c r="A15" s="2">
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>52</v>
+        <v>43</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -1752,13 +1675,13 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -1775,14 +1698,12 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>58</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E17" s="5"/>
       <c r="F17" s="2">
         <v>0</v>
       </c>
@@ -1798,14 +1719,12 @@
         <v>1001</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" t="s">
-        <v>61</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E18"/>
       <c r="F18">
         <v>1</v>
       </c>
@@ -1821,14 +1740,12 @@
         <v>1002</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" t="s">
-        <v>63</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E19"/>
       <c r="F19">
         <v>1</v>
       </c>
@@ -1844,14 +1761,12 @@
         <v>1003</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" t="s">
-        <v>66</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E20"/>
       <c r="F20">
         <v>1</v>
       </c>
@@ -1867,13 +1782,13 @@
         <v>1004</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1890,14 +1805,12 @@
         <v>2001</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" t="s">
-        <v>72</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="E22"/>
       <c r="F22">
         <v>3</v>
       </c>
@@ -1913,14 +1826,12 @@
         <v>2002</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" t="s">
-        <v>75</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E23"/>
       <c r="F23">
         <v>3</v>
       </c>
@@ -1936,14 +1847,12 @@
         <v>2003</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" t="s">
-        <v>78</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E24"/>
       <c r="F24">
         <v>3</v>
       </c>
@@ -1959,13 +1868,13 @@
         <v>2004</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="F25">
         <v>3</v>
@@ -1982,14 +1891,12 @@
         <v>3001</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" t="s">
-        <v>84</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E26"/>
       <c r="F26">
         <v>2</v>
       </c>
@@ -2005,14 +1912,12 @@
         <v>3002</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" t="s">
-        <v>87</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E27"/>
       <c r="F27">
         <v>2</v>
       </c>
@@ -2028,14 +1933,12 @@
         <v>3003</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
-      </c>
-      <c r="E28" t="s">
-        <v>90</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E28"/>
       <c r="F28">
         <v>2</v>
       </c>
@@ -2051,14 +1954,12 @@
         <v>3004</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" t="s">
-        <v>93</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="E29"/>
       <c r="F29">
         <v>2</v>
       </c>
@@ -2074,13 +1975,13 @@
         <v>4001</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="E30" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="F30">
         <v>4</v>
@@ -2097,13 +1998,13 @@
         <v>4002</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D31" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E31" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F31">
         <v>4</v>
@@ -2120,13 +2021,13 @@
         <v>4003</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="E32" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="F32">
         <v>4</v>
@@ -2143,13 +2044,13 @@
         <v>4004</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E33" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="F33">
         <v>4</v>
@@ -2166,13 +2067,13 @@
         <v>4005</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E34" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="F34">
         <v>4</v>
